--- a/chemrich_input_mesh_prediction.xlsx
+++ b/chemrich_input_mesh_prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\R_codes\Packages\ChemRICHWorkFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEAFC841-A336-4BD2-B049-D4DB1B5EDE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FCEB70-F71D-4C6F-9360-CE94419006D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{0A99E6CD-9B20-40B4-8844-44BF29A720E1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1117">
   <si>
     <t>glycine</t>
   </si>
@@ -3384,6 +3384,9 @@
   </si>
   <si>
     <t>smiles</t>
+  </si>
+  <si>
+    <t>pubchem_id</t>
   </si>
 </sst>
 </file>
@@ -3744,4517 +3747,6204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D64A77-100D-494F-AD08-F961AB0BE662}">
-  <dimension ref="A1:B562"/>
+  <dimension ref="A1:C562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1114</v>
       </c>
       <c r="B1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>752</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1030</v>
+      </c>
+      <c r="C2" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>541</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>670</v>
+      </c>
+      <c r="C3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>521</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>64960</v>
+      </c>
+      <c r="C4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>627</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>5312435</v>
+      </c>
+      <c r="C5" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>637</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>5312513</v>
+      </c>
+      <c r="C6" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>667</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>6443013</v>
+      </c>
+      <c r="C7" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>663</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>7058075</v>
+      </c>
+      <c r="C8" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>810</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>52924038</v>
+      </c>
+      <c r="C9" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>774</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>42607465</v>
+      </c>
+      <c r="C10" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>825</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>42607497</v>
+      </c>
+      <c r="C11" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>843</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>5282280</v>
+      </c>
+      <c r="C12" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>816</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>10415542</v>
+      </c>
+      <c r="C13" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>794</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>24779463</v>
+      </c>
+      <c r="C14" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>762</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>52925149</v>
+      </c>
+      <c r="C15" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>839</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>5283469</v>
+      </c>
+      <c r="C16" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>804</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>11988421</v>
+      </c>
+      <c r="C17" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>772</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>24779467</v>
+      </c>
+      <c r="C18" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>75810</v>
+      </c>
+      <c r="C19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>780</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>460604</v>
+      </c>
+      <c r="C20" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>754</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>86583448</v>
+      </c>
+      <c r="C21" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>835</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>5283468</v>
+      </c>
+      <c r="C22" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>800</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>6449974</v>
+      </c>
+      <c r="C23" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>768</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>25244076</v>
+      </c>
+      <c r="C24" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>823</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>42607496</v>
+      </c>
+      <c r="C25" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>790</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>24779462</v>
+      </c>
+      <c r="C26" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>760</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>52925129</v>
+      </c>
+      <c r="C27" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>829</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>14900</v>
+      </c>
+      <c r="C28" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>786</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>86554</v>
+      </c>
+      <c r="C29" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>756</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>89229</v>
+      </c>
+      <c r="C30" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>819</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>42607493</v>
+      </c>
+      <c r="C31" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>827</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>9547069</v>
+      </c>
+      <c r="C32" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>784</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>53480921</v>
+      </c>
+      <c r="C33" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>833</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>79075</v>
+      </c>
+      <c r="C34" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>796</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>86556</v>
+      </c>
+      <c r="C35" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>764</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>9547068</v>
+      </c>
+      <c r="C36" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>821</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>42607495</v>
+      </c>
+      <c r="C37" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>92136</v>
+      </c>
+      <c r="C38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>204</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>80283</v>
+      </c>
+      <c r="C39" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>812</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>24779476</v>
+      </c>
+      <c r="C40" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>893</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>167350</v>
+      </c>
+      <c r="C41" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>907</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>187790</v>
+      </c>
+      <c r="C42" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>885</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>65058</v>
+      </c>
+      <c r="C43" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>818</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>10415542</v>
+      </c>
+      <c r="C44" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>778</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>52925132</v>
+      </c>
+      <c r="C45" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>814</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>53480475</v>
+      </c>
+      <c r="C46" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>776</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>52925146</v>
+      </c>
+      <c r="C47" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>808</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>11757087</v>
+      </c>
+      <c r="C48" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1028</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>8697</v>
+      </c>
+      <c r="C49" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1042</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>45750</v>
+      </c>
+      <c r="C50" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>174</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>11266</v>
+      </c>
+      <c r="C51" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>671</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1008</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>10253</v>
+      </c>
+      <c r="C53" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1020</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>4277439</v>
+      </c>
+      <c r="C54" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>665</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>22485761</v>
+      </c>
+      <c r="C55" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>523</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>5280523</v>
+      </c>
+      <c r="C56" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>841</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>6436630</v>
+      </c>
+      <c r="C57" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>806</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>24779470</v>
+      </c>
+      <c r="C58" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1044</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>3080594</v>
+      </c>
+      <c r="C59" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>148</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>6426901</v>
+      </c>
+      <c r="C60" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>782</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>5459377</v>
+      </c>
+      <c r="C61" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>837</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>5319879</v>
+      </c>
+      <c r="C62" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>802</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>5280634</v>
+      </c>
+      <c r="C63" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>770</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>9547071</v>
+      </c>
+      <c r="C64" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>792</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>24779460</v>
+      </c>
+      <c r="C65" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>831</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <v>123409</v>
+      </c>
+      <c r="C66" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>788</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>460602</v>
+      </c>
+      <c r="C67" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>758</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <v>5256421</v>
+      </c>
+      <c r="C68" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>537</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>59</v>
+      </c>
+      <c r="C69" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>798</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>497299</v>
+      </c>
+      <c r="C70" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>766</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <v>53480667</v>
+      </c>
+      <c r="C71" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>96</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72">
+        <v>9378</v>
+      </c>
+      <c r="C72" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1046</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73">
+        <v>171264</v>
+      </c>
+      <c r="C73" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1084</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <v>83967</v>
+      </c>
+      <c r="C74" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>100</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75">
+        <v>91528</v>
+      </c>
+      <c r="C75" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>932</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76">
+        <v>64956</v>
+      </c>
+      <c r="C76" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>679</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <v>64505</v>
+      </c>
+      <c r="C77" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>702</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <v>439773</v>
+      </c>
+      <c r="C78" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>990</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>444485</v>
+      </c>
+      <c r="C79" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>750</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>441</v>
+      </c>
+      <c r="C80" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>661</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>26612</v>
+      </c>
+      <c r="C81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1010</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82">
+        <v>450268</v>
+      </c>
+      <c r="C82" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>659</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83">
+        <v>26613</v>
+      </c>
+      <c r="C83" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>126</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <v>10258</v>
+      </c>
+      <c r="C84" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>128</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85">
+        <v>439286</v>
+      </c>
+      <c r="C85" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>62</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86">
+        <v>64969</v>
+      </c>
+      <c r="C86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>539</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87">
+        <v>724</v>
+      </c>
+      <c r="C87" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>32</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88">
+        <v>111</v>
+      </c>
+      <c r="C88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1038</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89">
+        <v>1983</v>
+      </c>
+      <c r="C89" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1036</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <v>83939</v>
+      </c>
+      <c r="C90" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>873</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91">
+        <v>44135378</v>
+      </c>
+      <c r="C91" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>216</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92">
+        <v>500</v>
+      </c>
+      <c r="C92" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>657</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93">
+        <v>10413</v>
+      </c>
+      <c r="C93" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>42</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94">
+        <v>439902</v>
+      </c>
+      <c r="C94" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1012</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95">
+        <v>151012</v>
+      </c>
+      <c r="C95" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <v>127</v>
+      </c>
+      <c r="C96" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>142</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97">
+        <v>70</v>
+      </c>
+      <c r="C97" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>936</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98">
+        <v>649</v>
+      </c>
+      <c r="C98" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>190</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99">
+        <v>138</v>
+      </c>
+      <c r="C99" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>687</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100">
+        <v>5280733</v>
+      </c>
+      <c r="C100" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>958</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101">
+        <v>439234</v>
+      </c>
+      <c r="C101" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>206</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102">
+        <v>149</v>
+      </c>
+      <c r="C102" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>942</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103">
+        <v>445408</v>
+      </c>
+      <c r="C103" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>689</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104">
+        <v>5283159</v>
+      </c>
+      <c r="C104" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>222</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105">
+        <v>7405</v>
+      </c>
+      <c r="C105" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>685</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106">
+        <v>5280888</v>
+      </c>
+      <c r="C106" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>549</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107">
+        <v>91493</v>
+      </c>
+      <c r="C107" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>501</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108">
+        <v>643987</v>
+      </c>
+      <c r="C108" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>871</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109">
+        <v>3081085</v>
+      </c>
+      <c r="C109" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>859</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110">
+        <v>405</v>
+      </c>
+      <c r="C110" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>861</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111">
+        <v>473141</v>
+      </c>
+      <c r="C111" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>704</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112">
+        <v>18230</v>
+      </c>
+      <c r="C112" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>485</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113">
+        <v>65938</v>
+      </c>
+      <c r="C113" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>887</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114">
+        <v>190</v>
+      </c>
+      <c r="C114" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>889</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115">
+        <v>60961</v>
+      </c>
+      <c r="C115" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>895</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116">
+        <v>94136</v>
+      </c>
+      <c r="C116" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>897</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117">
+        <v>41211</v>
+      </c>
+      <c r="C117" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>899</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118">
+        <v>6083</v>
+      </c>
+      <c r="C118" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>901</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119">
+        <v>440122</v>
+      </c>
+      <c r="C119" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>669</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120">
+        <v>196</v>
+      </c>
+      <c r="C120" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>653</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121">
+        <v>5282844</v>
+      </c>
+      <c r="C121" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>210</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122">
+        <v>199</v>
+      </c>
+      <c r="C122" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>34</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123">
+        <v>5950</v>
+      </c>
+      <c r="C123" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>251</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124">
+        <v>601</v>
+      </c>
+      <c r="C124" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>261</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125">
+        <v>128841</v>
+      </c>
+      <c r="C125" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>263</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126">
+        <v>79094</v>
+      </c>
+      <c r="C126" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>265</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127">
+        <v>417358</v>
+      </c>
+      <c r="C127" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>259</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128">
+        <v>259583</v>
+      </c>
+      <c r="C128" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>257</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129">
+        <v>98509</v>
+      </c>
+      <c r="C129" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>269</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130">
+        <v>2080</v>
+      </c>
+      <c r="C130" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>253</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131">
+        <v>426318</v>
+      </c>
+      <c r="C131" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>267</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132">
+        <v>263474</v>
+      </c>
+      <c r="C132" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>271</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133">
+        <v>92946</v>
+      </c>
+      <c r="C133" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>255</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134">
+        <v>352807</v>
+      </c>
+      <c r="C134" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>20</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135">
+        <v>99289</v>
+      </c>
+      <c r="C135" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>283</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136">
+        <v>92865</v>
+      </c>
+      <c r="C136" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>428</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137">
+        <v>100094</v>
+      </c>
+      <c r="C137" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>438</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138">
+        <v>351830</v>
+      </c>
+      <c r="C138" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139">
+        <v>853180</v>
+      </c>
+      <c r="C139" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>998</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140">
+        <v>14985</v>
+      </c>
+      <c r="C140" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>863</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141">
+        <v>159663</v>
+      </c>
+      <c r="C141" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>470</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142">
+        <v>112072</v>
+      </c>
+      <c r="C142" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>551</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143">
+        <v>94154</v>
+      </c>
+      <c r="C143" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>956</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144">
+        <v>10264</v>
+      </c>
+      <c r="C144" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>639</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145">
+        <v>10467</v>
+      </c>
+      <c r="C145" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>645</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146">
+        <v>6442778</v>
+      </c>
+      <c r="C146" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>180</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147">
+        <v>6322</v>
+      </c>
+      <c r="C147" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>198</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148">
+        <v>439998</v>
+      </c>
+      <c r="C148" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>343</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149">
+        <v>333445</v>
+      </c>
+      <c r="C149" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>460</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150">
+        <v>9815009</v>
+      </c>
+      <c r="C150" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>333</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151">
+        <v>150964</v>
+      </c>
+      <c r="C151" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>273</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152">
+        <v>13017549</v>
+      </c>
+      <c r="C152" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>275</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153">
+        <v>335257</v>
+      </c>
+      <c r="C153" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>950</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154">
+        <v>54670067</v>
+      </c>
+      <c r="C154" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>26</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155">
+        <v>6267</v>
+      </c>
+      <c r="C155" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>24</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156">
+        <v>5960</v>
+      </c>
+      <c r="C156" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>281</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157">
+        <v>151403</v>
+      </c>
+      <c r="C157" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>345</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158">
+        <v>3549397</v>
+      </c>
+      <c r="C158" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>279</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159">
+        <v>93078</v>
+      </c>
+      <c r="C159" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>277</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160">
+        <v>9948926</v>
+      </c>
+      <c r="C160" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>335</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161">
+        <v>4991131</v>
+      </c>
+      <c r="C161" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1078</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162">
+        <v>2249</v>
+      </c>
+      <c r="C162" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>673</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163">
+        <v>2266</v>
+      </c>
+      <c r="C163" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1016</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164">
+        <v>243</v>
+      </c>
+      <c r="C164" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>30</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165">
+        <v>239</v>
+      </c>
+      <c r="C165" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>8</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166">
+        <v>964</v>
+      </c>
+      <c r="C166" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>22</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167">
+        <v>247</v>
+      </c>
+      <c r="C167" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1000</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168">
+        <v>8989</v>
+      </c>
+      <c r="C168" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>966</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169">
+        <v>5497144</v>
+      </c>
+      <c r="C169" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>964</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170">
+        <v>5280352</v>
+      </c>
+      <c r="C170" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>693</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171">
+        <v>439829</v>
+      </c>
+      <c r="C171" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>611</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172">
+        <v>2969</v>
+      </c>
+      <c r="C172" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>605</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173">
+        <v>8892</v>
+      </c>
+      <c r="C173" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>607</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174">
+        <v>379</v>
+      </c>
+      <c r="C174" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>700</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175">
+        <v>2724480</v>
+      </c>
+      <c r="C175" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1014</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176">
+        <v>289</v>
+      </c>
+      <c r="C176" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1062</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177">
+        <v>2662</v>
+      </c>
+      <c r="C177" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>124</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178">
+        <v>92181</v>
+      </c>
+      <c r="C178" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>746</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179">
+        <v>892</v>
+      </c>
+      <c r="C179" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>720</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180">
+        <v>221493</v>
+      </c>
+      <c r="C180" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>855</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181">
+        <v>5997</v>
+      </c>
+      <c r="C181" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>736</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182">
+        <v>305</v>
+      </c>
+      <c r="C182" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>726</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183">
+        <v>1014</v>
+      </c>
+      <c r="C183" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1100</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184">
+        <v>709625</v>
+      </c>
+      <c r="C184" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>577</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185">
+        <v>309</v>
+      </c>
+      <c r="C185" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>633</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186">
+        <v>5282761</v>
+      </c>
+      <c r="C186" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1064</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187">
+        <v>2771</v>
+      </c>
+      <c r="C187" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>154</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188">
+        <v>441696</v>
+      </c>
+      <c r="C188" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>575</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189">
+        <v>311</v>
+      </c>
+      <c r="C189" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190">
+        <v>9750</v>
+      </c>
+      <c r="C190" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1032</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191">
+        <v>5284371</v>
+      </c>
+      <c r="C191" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>867</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192">
+        <v>5754</v>
+      </c>
+      <c r="C192" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>869</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193">
+        <v>222786</v>
+      </c>
+      <c r="C193" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>200</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194">
+        <v>586</v>
+      </c>
+      <c r="C194" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>202</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195">
+        <v>588</v>
+      </c>
+      <c r="C195" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>156</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196">
+        <v>5862</v>
+      </c>
+      <c r="C196" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>226</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197">
+        <v>3080690</v>
+      </c>
+      <c r="C197" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>331</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198">
+        <v>439498</v>
+      </c>
+      <c r="C198" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>160</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199">
+        <v>67678</v>
+      </c>
+      <c r="C199" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>920</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200">
+        <v>6175</v>
+      </c>
+      <c r="C200" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>742</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201">
+        <v>291</v>
+      </c>
+      <c r="C201" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>922</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202">
+        <v>6131</v>
+      </c>
+      <c r="C202" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>924</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203">
+        <v>66535</v>
+      </c>
+      <c r="C203" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>926</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204">
+        <v>417654</v>
+      </c>
+      <c r="C204" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>698</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205">
+        <v>134</v>
+      </c>
+      <c r="C205" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>643</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206">
+        <v>5282805</v>
+      </c>
+      <c r="C206" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>595</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207">
+        <v>21158448</v>
+      </c>
+      <c r="C207" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>857</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208">
+        <v>6665</v>
+      </c>
+      <c r="C208" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>178</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209">
+        <v>123831</v>
+      </c>
+      <c r="C209" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>4</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210">
+        <v>673</v>
+      </c>
+      <c r="C210" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>649</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211">
+        <v>16061340</v>
+      </c>
+      <c r="C211" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>603</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212">
+        <v>6433873</v>
+      </c>
+      <c r="C212" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>599</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213">
+        <v>6438348</v>
+      </c>
+      <c r="C213" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>601</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214">
+        <v>5497182</v>
+      </c>
+      <c r="C214" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>651</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215">
+        <v>5312556</v>
+      </c>
+      <c r="C215" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>675</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216">
+        <v>12736</v>
+      </c>
+      <c r="C216" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>597</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217">
+        <v>446284</v>
+      </c>
+      <c r="C217" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>641</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218">
+        <v>6438157</v>
+      </c>
+      <c r="C218" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>112</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219">
+        <v>5816</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1092</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220">
+        <v>3032311</v>
+      </c>
+      <c r="C220" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>647</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221">
+        <v>5281116</v>
+      </c>
+      <c r="C221" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1104</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222">
+        <v>8998</v>
+      </c>
+      <c r="C222" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>491</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223">
+        <v>439535</v>
+      </c>
+      <c r="C223" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>728</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224">
+        <v>700</v>
+      </c>
+      <c r="C224" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>994</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225">
+        <v>439154</v>
+      </c>
+      <c r="C225" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>497</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226">
+        <v>439709</v>
+      </c>
+      <c r="C226" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>535</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227">
+        <v>439394</v>
+      </c>
+      <c r="C227" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>533</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228">
+        <v>69507</v>
+      </c>
+      <c r="C228" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>495</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229">
+        <v>17106</v>
+      </c>
+      <c r="C229" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>583</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230">
+        <v>723</v>
+      </c>
+      <c r="C230" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1072</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231">
+        <v>3446</v>
+      </c>
+      <c r="C231" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>499</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232">
+        <v>439357</v>
+      </c>
+      <c r="C232" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>52</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233">
+        <v>119</v>
+      </c>
+      <c r="C233" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>478</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234">
+        <v>123938</v>
+      </c>
+      <c r="C234" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>480</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235">
+        <v>92865</v>
+      </c>
+      <c r="C235" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>481</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236">
+        <v>150914</v>
+      </c>
+      <c r="C236" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>476</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237">
+        <v>14253342</v>
+      </c>
+      <c r="C237" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>474</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238">
+        <v>151023</v>
+      </c>
+      <c r="C238" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>483</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239">
+        <v>111299</v>
+      </c>
+      <c r="C239" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>472</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240">
+        <v>7016583</v>
+      </c>
+      <c r="C240" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1002</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241">
+        <v>14986</v>
+      </c>
+      <c r="C241" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>954</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242">
+        <v>33037</v>
+      </c>
+      <c r="C242" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>559</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243">
+        <v>10690</v>
+      </c>
+      <c r="C243" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>531</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244">
+        <v>5793</v>
+      </c>
+      <c r="C244" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>529</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245">
+        <v>65533</v>
+      </c>
+      <c r="C245" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>527</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246">
+        <v>208</v>
+      </c>
+      <c r="C246" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>547</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247">
+        <v>444791</v>
+      </c>
+      <c r="C247" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>40</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248">
+        <v>23327</v>
+      </c>
+      <c r="C248" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>46</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249">
+        <v>68662</v>
+      </c>
+      <c r="C249" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>48</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250">
+        <v>5961</v>
+      </c>
+      <c r="C250" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>72</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251">
+        <v>743</v>
+      </c>
+      <c r="C251" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>88</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252">
+        <v>3036008</v>
+      </c>
+      <c r="C252" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>224</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253">
+        <v>975</v>
+      </c>
+      <c r="C253" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>220</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254">
+        <v>124886</v>
+      </c>
+      <c r="C254" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>525</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255">
+        <v>439194</v>
+      </c>
+      <c r="C255" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>734</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256">
+        <v>753</v>
+      </c>
+      <c r="C256" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1022</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257">
+        <v>3611397</v>
+      </c>
+      <c r="C257" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>738</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258">
+        <v>439162</v>
+      </c>
+      <c r="C258" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>732</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259">
+        <v>123874</v>
+      </c>
+      <c r="C259" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>740</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260">
+        <v>439285</v>
+      </c>
+      <c r="C260" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>0</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261">
+        <v>750</v>
+      </c>
+      <c r="C261" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>724</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262">
+        <v>10140</v>
+      </c>
+      <c r="C262" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1018</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263">
+        <v>757</v>
+      </c>
+      <c r="C263" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>722</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264">
+        <v>72222</v>
+      </c>
+      <c r="C264" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>232</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265">
+        <v>11163</v>
+      </c>
+      <c r="C265" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>238</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266">
+        <v>259613</v>
+      </c>
+      <c r="C266" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>240</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267">
+        <v>92843</v>
+      </c>
+      <c r="C267" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>242</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268">
+        <v>3080576</v>
+      </c>
+      <c r="C268" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>234</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269">
+        <v>151282</v>
+      </c>
+      <c r="C269" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>244</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270">
+        <v>97415</v>
+      </c>
+      <c r="C270" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>236</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271">
+        <v>79101</v>
+      </c>
+      <c r="C271" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>246</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272">
+        <v>111257</v>
+      </c>
+      <c r="C272" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>250</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273">
+        <v>92181</v>
+      </c>
+      <c r="C273" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>248</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274">
+        <v>92829</v>
+      </c>
+      <c r="C274" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>230</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275">
+        <v>97417</v>
+      </c>
+      <c r="C275" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>218</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276">
+        <v>763</v>
+      </c>
+      <c r="C276" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>903</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277">
+        <v>764</v>
+      </c>
+      <c r="C277" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>905</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278">
+        <v>6802</v>
+      </c>
+      <c r="C278" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>909</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279">
+        <v>1807035</v>
+      </c>
+      <c r="C279" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>948</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280">
+        <v>439373</v>
+      </c>
+      <c r="C280" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>960</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281">
+        <v>26945</v>
+      </c>
+      <c r="C281" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>706</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282">
+        <v>6426853</v>
+      </c>
+      <c r="C282" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1006</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283">
+        <v>464</v>
+      </c>
+      <c r="C283" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>64</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284">
+        <v>774</v>
+      </c>
+      <c r="C284" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>58</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285">
+        <v>6274</v>
+      </c>
+      <c r="C285" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>347</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286">
+        <v>189008</v>
+      </c>
+      <c r="C286" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1106</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287">
+        <v>9795880</v>
+      </c>
+      <c r="C287" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>349</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288">
+        <v>152198</v>
+      </c>
+      <c r="C288" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>351</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289">
+        <v>6539217</v>
+      </c>
+      <c r="C289" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>353</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290">
+        <v>515713</v>
+      </c>
+      <c r="C290" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>176</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291">
+        <v>778</v>
+      </c>
+      <c r="C291" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>14</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292">
+        <v>12647</v>
+      </c>
+      <c r="C292" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1096</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293">
+        <v>441447</v>
+      </c>
+      <c r="C293" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>66</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294">
+        <v>782</v>
+      </c>
+      <c r="C294" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1070</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295">
+        <v>3639</v>
+      </c>
+      <c r="C295" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>162</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296">
+        <v>107812</v>
+      </c>
+      <c r="C296" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>881</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297">
+        <v>790</v>
+      </c>
+      <c r="C297" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>70</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298">
+        <v>6984337</v>
+      </c>
+      <c r="C298" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>120</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299">
+        <v>802</v>
+      </c>
+      <c r="C299" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>118</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300">
+        <v>92904</v>
+      </c>
+      <c r="C300" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>883</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301">
+        <v>6021</v>
+      </c>
+      <c r="C301" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>747</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302">
+        <v>107737</v>
+      </c>
+      <c r="C302" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>146</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303">
+        <v>168379</v>
+      </c>
+      <c r="C303" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>130</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304">
+        <v>791</v>
+      </c>
+      <c r="C304" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>359</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305">
+        <v>417358</v>
+      </c>
+      <c r="C305" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>360</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306">
+        <v>9900561</v>
+      </c>
+      <c r="C306" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>362</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307">
+        <v>342532</v>
+      </c>
+      <c r="C307" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>289</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308">
+        <v>18218219</v>
+      </c>
+      <c r="C308" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>287</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309">
+        <v>13879965</v>
+      </c>
+      <c r="C309" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>364</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310">
+        <v>17863274</v>
+      </c>
+      <c r="C310" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>366</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311">
+        <v>435728</v>
+      </c>
+      <c r="C311" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>368</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312">
+        <v>14426033</v>
+      </c>
+      <c r="C312" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>370</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313">
+        <v>9797038</v>
+      </c>
+      <c r="C313" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>372</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314">
+        <v>342468</v>
+      </c>
+      <c r="C314" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>374</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315">
+        <v>449407</v>
+      </c>
+      <c r="C315" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>150</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316">
+        <v>169235</v>
+      </c>
+      <c r="C316" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>114</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317">
+        <v>846</v>
+      </c>
+      <c r="C317" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>545</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318">
+        <v>107689</v>
+      </c>
+      <c r="C318" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>613</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319">
+        <v>3893</v>
+      </c>
+      <c r="C319" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>710</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320">
+        <v>168381</v>
+      </c>
+      <c r="C320" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>132</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321">
+        <v>6106</v>
+      </c>
+      <c r="C321" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>376</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322">
+        <v>259321</v>
+      </c>
+      <c r="C322" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>378</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323">
+        <v>152914</v>
+      </c>
+      <c r="C323" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>380</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324">
+        <v>4128305</v>
+      </c>
+      <c r="C324" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>382</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325">
+        <v>79070</v>
+      </c>
+      <c r="C325" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>384</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326">
+        <v>341684</v>
+      </c>
+      <c r="C326" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>291</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327">
+        <v>94244</v>
+      </c>
+      <c r="C327" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>440</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328">
+        <v>118276</v>
+      </c>
+      <c r="C328" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>386</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329">
+        <v>6992310</v>
+      </c>
+      <c r="C329" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>388</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330">
+        <v>3621685</v>
+      </c>
+      <c r="C330" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>390</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331">
+        <v>329275</v>
+      </c>
+      <c r="C331" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>392</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332">
+        <v>273262</v>
+      </c>
+      <c r="C332" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1050</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333">
+        <v>3676</v>
+      </c>
+      <c r="C333" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>591</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334">
+        <v>3931</v>
+      </c>
+      <c r="C334" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>593</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335">
+        <v>860</v>
+      </c>
+      <c r="C335" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1080</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336">
+        <v>60822</v>
+      </c>
+      <c r="C336" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>962</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337">
+        <v>5280818</v>
+      </c>
+      <c r="C337" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>74</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338">
+        <v>5962</v>
+      </c>
+      <c r="C338" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>394</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339">
+        <v>4682588</v>
+      </c>
+      <c r="C339" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1108</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340">
+        <v>128837</v>
+      </c>
+      <c r="C340" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>396</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341">
+        <v>7016114</v>
+      </c>
+      <c r="C341" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>398</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342">
+        <v>14693924</v>
+      </c>
+      <c r="C342" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>585</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343">
+        <v>525</v>
+      </c>
+      <c r="C343" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>696</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344">
+        <v>22833583</v>
+      </c>
+      <c r="C344" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>519</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345">
+        <v>439606</v>
+      </c>
+      <c r="C345" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>517</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346">
+        <v>124005</v>
+      </c>
+      <c r="C346" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>503</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347">
+        <v>439186</v>
+      </c>
+      <c r="C347" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>573</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348">
+        <v>439639</v>
+      </c>
+      <c r="C348" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>515</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349">
+        <v>439586</v>
+      </c>
+      <c r="C349" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>505</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350">
+        <v>6251</v>
+      </c>
+      <c r="C350" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>507</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351">
+        <v>18950</v>
+      </c>
+      <c r="C351" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>509</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352">
+        <v>65127</v>
+      </c>
+      <c r="C352" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>625</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353">
+        <v>10465</v>
+      </c>
+      <c r="C353" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1052</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354">
+        <v>4091</v>
+      </c>
+      <c r="C354" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>170</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355">
+        <v>6137</v>
+      </c>
+      <c r="C355" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>357</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356">
+        <v>14878381</v>
+      </c>
+      <c r="C356" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>456</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357">
+        <v>333467</v>
+      </c>
+      <c r="C357" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1110</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358">
+        <v>17900030</v>
+      </c>
+      <c r="C358" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>454</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359">
+        <v>6992930</v>
+      </c>
+      <c r="C359" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>355</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360">
+        <v>444206</v>
+      </c>
+      <c r="C360" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>458</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361">
+        <v>100048</v>
+      </c>
+      <c r="C361" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1026</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362">
+        <v>64947</v>
+      </c>
+      <c r="C362" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>152</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363">
+        <v>128145</v>
+      </c>
+      <c r="C363" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>946</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364">
+        <v>12691389</v>
+      </c>
+      <c r="C364" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1054</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365">
+        <v>4171</v>
+      </c>
+      <c r="C365" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1056</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366">
+        <v>62936</v>
+      </c>
+      <c r="C366" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>744</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367">
+        <v>892</v>
+      </c>
+      <c r="C367" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>615</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368">
+        <v>11005</v>
+      </c>
+      <c r="C368" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>617</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369">
+        <v>5281119</v>
+      </c>
+      <c r="C369" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>712</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370">
+        <v>6426854</v>
+      </c>
+      <c r="C370" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>986</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371">
+        <v>69698</v>
+      </c>
+      <c r="C371" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>891</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372">
+        <v>27476</v>
+      </c>
+      <c r="C372" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>911</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373">
+        <v>250902</v>
+      </c>
+      <c r="C373" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>914</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374">
+        <v>601633</v>
+      </c>
+      <c r="C374" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>84</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375">
+        <v>192590</v>
+      </c>
+      <c r="C375" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>913</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376">
+        <v>250902</v>
+      </c>
+      <c r="C376" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>86</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377">
+        <v>92832</v>
+      </c>
+      <c r="C377" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>916</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378">
+        <v>161466</v>
+      </c>
+      <c r="C378" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>80</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379">
+        <v>6992003</v>
+      </c>
+      <c r="C379" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>36</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380">
+        <v>7345</v>
+      </c>
+      <c r="C380" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>182</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381">
+        <v>67427</v>
+      </c>
+      <c r="C381" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>28</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382">
+        <v>99715</v>
+      </c>
+      <c r="C382" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>38</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383">
+        <v>65065</v>
+      </c>
+      <c r="C383" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>54</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384">
+        <v>5255</v>
+      </c>
+      <c r="C384" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>487</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385">
+        <v>439174</v>
+      </c>
+      <c r="C385" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>489</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386">
+        <v>150941</v>
+      </c>
+      <c r="C386" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>56</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387">
+        <v>25561</v>
+      </c>
+      <c r="C387" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>6</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388">
+        <v>10972</v>
+      </c>
+      <c r="C388" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>138</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389">
+        <v>306109</v>
+      </c>
+      <c r="C389" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>134</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390">
+        <v>70912</v>
+      </c>
+      <c r="C390" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>172</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391">
+        <v>6180</v>
+      </c>
+      <c r="C391" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>493</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392">
+        <v>439197</v>
+      </c>
+      <c r="C392" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>194</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393">
+        <v>439232</v>
+      </c>
+      <c r="C393" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>104</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394">
+        <v>74839</v>
+      </c>
+      <c r="C394" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>12</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395">
+        <v>65249</v>
+      </c>
+      <c r="C395" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>18</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396">
+        <v>152204</v>
+      </c>
+      <c r="C396" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>122</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397">
+        <v>2002</v>
+      </c>
+      <c r="C397" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>106</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398">
+        <v>68310</v>
+      </c>
+      <c r="C398" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>136</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399">
+        <v>227752</v>
+      </c>
+      <c r="C399" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1048</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400">
+        <v>156391</v>
+      </c>
+      <c r="C400" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>655</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="B401">
+        <v>5281120</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>968</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402">
+        <v>936</v>
+      </c>
+      <c r="C402" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>972</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403">
+        <v>5892</v>
+      </c>
+      <c r="C403" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>974</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404">
+        <v>439153</v>
+      </c>
+      <c r="C404" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>970</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405">
+        <v>14180</v>
+      </c>
+      <c r="C405" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>978</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406">
+        <v>439924</v>
+      </c>
+      <c r="C406" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>982</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407">
+        <v>938</v>
+      </c>
+      <c r="C407" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>976</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408">
+        <v>165490</v>
+      </c>
+      <c r="C408" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>44</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409">
+        <v>439377</v>
+      </c>
+      <c r="C409" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>708</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410">
+        <v>439824</v>
+      </c>
+      <c r="C410" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>631</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411">
+        <v>965</v>
+      </c>
+      <c r="C411" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>718</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412">
+        <v>6441392</v>
+      </c>
+      <c r="C412" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>228</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413">
+        <v>193304</v>
+      </c>
+      <c r="C413" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>184</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414">
+        <v>6262</v>
+      </c>
+      <c r="C414" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1040</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415">
+        <v>83944</v>
+      </c>
+      <c r="C415" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>621</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416">
+        <v>985</v>
+      </c>
+      <c r="C416" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>623</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417">
+        <v>5282745</v>
+      </c>
+      <c r="C417" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>851</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418">
+        <v>9939941</v>
+      </c>
+      <c r="C418" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>714</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419">
+        <v>11953816</v>
+      </c>
+      <c r="C419" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>988</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420">
+        <v>6613</v>
+      </c>
+      <c r="C420" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1076</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421">
+        <v>43815</v>
+      </c>
+      <c r="C421" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>92</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422">
+        <v>2879</v>
+      </c>
+      <c r="C422" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>609</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423">
+        <v>8158</v>
+      </c>
+      <c r="C423" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1060</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424">
+        <v>5904</v>
+      </c>
+      <c r="C424" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>619</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425">
+        <v>13849</v>
+      </c>
+      <c r="C425" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1030</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426">
+        <v>4766</v>
+      </c>
+      <c r="C426" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>110</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427">
+        <v>74426</v>
+      </c>
+      <c r="C427" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>108</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428">
+        <v>92258</v>
+      </c>
+      <c r="C428" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>90</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429">
+        <v>6140</v>
+      </c>
+      <c r="C429" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>303</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430">
+        <v>5488196</v>
+      </c>
+      <c r="C430" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>466</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431">
+        <v>150903</v>
+      </c>
+      <c r="C431" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>462</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432">
+        <v>335051</v>
+      </c>
+      <c r="C432" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>305</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433">
+        <v>151134</v>
+      </c>
+      <c r="C433" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>311</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434">
+        <v>98207</v>
+      </c>
+      <c r="C434" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>400</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435">
+        <v>4078229</v>
+      </c>
+      <c r="C435" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>313</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436">
+        <v>13890414</v>
+      </c>
+      <c r="C436" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>301</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437">
+        <v>6993090</v>
+      </c>
+      <c r="C437" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>450</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438">
+        <v>4069131</v>
+      </c>
+      <c r="C438" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>402</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439">
+        <v>9859812</v>
+      </c>
+      <c r="C439" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>468</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440">
+        <v>134906</v>
+      </c>
+      <c r="C440" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>307</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441">
+        <v>515709</v>
+      </c>
+      <c r="C441" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>309</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442">
+        <v>4096934</v>
+      </c>
+      <c r="C442" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>587</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443">
+        <v>1061</v>
+      </c>
+      <c r="C443" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>543</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444">
+        <v>1005</v>
+      </c>
+      <c r="C444" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>730</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445">
+        <v>1015</v>
+      </c>
+      <c r="C445" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>849</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446">
+        <v>122121</v>
+      </c>
+      <c r="C446" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>78</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447">
+        <v>849</v>
+      </c>
+      <c r="C447" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1090</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448">
+        <v>638024</v>
+      </c>
+      <c r="C448" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1058</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449">
+        <v>126894</v>
+      </c>
+      <c r="C449" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>875</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450">
+        <v>123796</v>
+      </c>
+      <c r="C450" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>293</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451">
+        <v>3952518</v>
+      </c>
+      <c r="C451" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>188</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452">
+        <v>145742</v>
+      </c>
+      <c r="C452" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>285</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453">
+        <v>7408076</v>
+      </c>
+      <c r="C453" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1112</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454">
+        <v>5233577</v>
+      </c>
+      <c r="C454" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>691</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455">
+        <v>107738</v>
+      </c>
+      <c r="C455" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>681</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456">
+        <v>5280880</v>
+      </c>
+      <c r="C456" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>683</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457">
+        <v>5280360</v>
+      </c>
+      <c r="C457" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>940</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458">
+        <v>15047</v>
+      </c>
+      <c r="C458" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>208</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459">
+        <v>1045</v>
+      </c>
+      <c r="C459" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>992</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460">
+        <v>1050</v>
+      </c>
+      <c r="C460" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1004</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461">
+        <v>6723</v>
+      </c>
+      <c r="C461" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>50</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462">
+        <v>499</v>
+      </c>
+      <c r="C462" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>589</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463">
+        <v>1023</v>
+      </c>
+      <c r="C463" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1098</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464">
+        <v>151108</v>
+      </c>
+      <c r="C464" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1088</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465">
+        <v>6508</v>
+      </c>
+      <c r="C465" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1082</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466">
+        <v>441074</v>
+      </c>
+      <c r="C466" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>980</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467">
+        <v>1066</v>
+      </c>
+      <c r="C467" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1066</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468">
+        <v>3001055</v>
+      </c>
+      <c r="C468" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>553</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469">
+        <v>827</v>
+      </c>
+      <c r="C469" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>996</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470">
+        <v>6759</v>
+      </c>
+      <c r="C470" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>561</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471">
+        <v>5779</v>
+      </c>
+      <c r="C471" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>563</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472">
+        <v>619</v>
+      </c>
+      <c r="C472" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>82</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473">
+        <v>160556</v>
+      </c>
+      <c r="C473" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>168</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474">
+        <v>439155</v>
+      </c>
+      <c r="C474" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>166</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475">
+        <v>34755</v>
+      </c>
+      <c r="C475" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1034</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476">
+        <v>338</v>
+      </c>
+      <c r="C476" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>2</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477">
+        <v>1088</v>
+      </c>
+      <c r="C477" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>749</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478">
+        <v>892</v>
+      </c>
+      <c r="C478" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>557</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479">
+        <v>616</v>
+      </c>
+      <c r="C479" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>10</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480">
+        <v>5951</v>
+      </c>
+      <c r="C480" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>442</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481">
+        <v>71429009</v>
+      </c>
+      <c r="C481" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>404</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482">
+        <v>13919048</v>
+      </c>
+      <c r="C482" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>406</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483">
+        <v>21285384</v>
+      </c>
+      <c r="C483" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>444</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484">
+        <v>7020159</v>
+      </c>
+      <c r="C484" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>158</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485">
+        <v>24417</v>
+      </c>
+      <c r="C485" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>511</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486">
+        <v>5780</v>
+      </c>
+      <c r="C486" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>513</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487">
+        <v>21872877</v>
+      </c>
+      <c r="C487" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>212</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488">
+        <v>1102</v>
+      </c>
+      <c r="C488" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>214</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489">
+        <v>1103</v>
+      </c>
+      <c r="C489" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>845</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490">
+        <v>3126</v>
+      </c>
+      <c r="C490" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>847</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491">
+        <v>31270</v>
+      </c>
+      <c r="C491" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>853</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492">
+        <v>1105</v>
+      </c>
+      <c r="C492" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1094</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493">
+        <v>554</v>
+      </c>
+      <c r="C493" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>629</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494">
+        <v>5281</v>
+      </c>
+      <c r="C494" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>635</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495">
+        <v>25245840</v>
+      </c>
+      <c r="C495" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>716</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496">
+        <v>6426855</v>
+      </c>
+      <c r="C496" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1074</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497">
+        <v>19649</v>
+      </c>
+      <c r="C497" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>579</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498">
+        <v>1110</v>
+      </c>
+      <c r="C498" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>581</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499">
+        <v>439829</v>
+      </c>
+      <c r="C499" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1086</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500">
+        <v>444305</v>
+      </c>
+      <c r="C500" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>164</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501">
+        <v>1123</v>
+      </c>
+      <c r="C501" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>865</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502">
+        <v>6013</v>
+      </c>
+      <c r="C502" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1102</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503">
+        <v>5429</v>
+      </c>
+      <c r="C503" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>555</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504">
+        <v>169019</v>
+      </c>
+      <c r="C504" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>952</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505">
+        <v>151152</v>
+      </c>
+      <c r="C505" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>16</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506">
+        <v>6288</v>
+      </c>
+      <c r="C506" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>295</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507">
+        <v>20216788</v>
+      </c>
+      <c r="C507" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>408</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508">
+        <v>7021828</v>
+      </c>
+      <c r="C508" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>410</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509">
+        <v>7020165</v>
+      </c>
+      <c r="C509" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>299</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510">
+        <v>4099799</v>
+      </c>
+      <c r="C510" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>297</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511">
+        <v>7020902</v>
+      </c>
+      <c r="C511" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>930</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512">
+        <v>5789</v>
+      </c>
+      <c r="C512" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>928</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513">
+        <v>1135</v>
+      </c>
+      <c r="C513" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>196</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514">
+        <v>5810</v>
+      </c>
+      <c r="C514" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>60</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515">
+        <v>5460052</v>
+      </c>
+      <c r="C515" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1024</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516">
+        <v>8172</v>
+      </c>
+      <c r="C516" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>984</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517">
+        <v>5570</v>
+      </c>
+      <c r="C517" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>116</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518">
+        <v>6305</v>
+      </c>
+      <c r="C518" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>418</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519">
+        <v>18218248</v>
+      </c>
+      <c r="C519" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>412</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520">
+        <v>323786</v>
+      </c>
+      <c r="C520" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>94</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521">
+        <v>6057</v>
+      </c>
+      <c r="C521" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>414</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522">
+        <v>4078684</v>
+      </c>
+      <c r="C522" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>464</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523">
+        <v>19421321</v>
+      </c>
+      <c r="C523" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>420</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524">
+        <v>259323</v>
+      </c>
+      <c r="C524" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>424</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525">
+        <v>14717809</v>
+      </c>
+      <c r="C525" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>416</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526">
+        <v>87071</v>
+      </c>
+      <c r="C526" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>430</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527">
+        <v>19786231</v>
+      </c>
+      <c r="C527" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>426</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528">
+        <v>7009600</v>
+      </c>
+      <c r="C528" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>422</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529">
+        <v>5057430</v>
+      </c>
+      <c r="C529" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>337</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530">
+        <v>14767562</v>
+      </c>
+      <c r="C530" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>677</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531">
+        <v>15816</v>
+      </c>
+      <c r="C531" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>934</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532">
+        <v>1174</v>
+      </c>
+      <c r="C532" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>918</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533">
+        <v>1175</v>
+      </c>
+      <c r="C533" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>186</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534">
+        <v>1176</v>
+      </c>
+      <c r="C534" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>938</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535">
+        <v>6029</v>
+      </c>
+      <c r="C535" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>944</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536">
+        <v>6030</v>
+      </c>
+      <c r="C536" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>694</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537">
+        <v>6426903</v>
+      </c>
+      <c r="C537" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>140</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538">
+        <v>1182</v>
+      </c>
+      <c r="C538" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>339</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539">
+        <v>334517</v>
+      </c>
+      <c r="C539" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>315</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540">
+        <v>4266827</v>
+      </c>
+      <c r="C540" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>317</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541">
+        <v>22419519</v>
+      </c>
+      <c r="C541" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>432</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542">
+        <v>9964657</v>
+      </c>
+      <c r="C542" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>319</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543">
+        <v>5253209</v>
+      </c>
+      <c r="C543" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>446</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544">
+        <v>136487</v>
+      </c>
+      <c r="C544" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>448</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545">
+        <v>7408625</v>
+      </c>
+      <c r="C545" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>436</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B546">
+        <v>5246013</v>
+      </c>
+      <c r="C546" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>341</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547">
+        <v>352039</v>
+      </c>
+      <c r="C547" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>434</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B548">
+        <v>168058</v>
+      </c>
+      <c r="C548" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>323</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549">
+        <v>292427</v>
+      </c>
+      <c r="C549" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>327</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B550">
+        <v>144746</v>
+      </c>
+      <c r="C550" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>321</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551">
+        <v>139506</v>
+      </c>
+      <c r="C551" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>452</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B552">
+        <v>3360287</v>
+      </c>
+      <c r="C552" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>325</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553">
+        <v>4065033</v>
+      </c>
+      <c r="C553" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>329</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554">
+        <v>409682</v>
+      </c>
+      <c r="C554" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>98</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555">
+        <v>736172</v>
+      </c>
+      <c r="C555" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1068</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556">
+        <v>5656</v>
+      </c>
+      <c r="C556" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>877</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557">
+        <v>1188</v>
+      </c>
+      <c r="C557" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>879</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558">
+        <v>64959</v>
+      </c>
+      <c r="C558" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>565</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559">
+        <v>6912</v>
+      </c>
+      <c r="C559" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>569</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560">
+        <v>6971042</v>
+      </c>
+      <c r="C560" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>567</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B561">
+        <v>135191</v>
+      </c>
+      <c r="C561" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>571</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562">
+        <v>22253</v>
+      </c>
+      <c r="C562" t="s">
         <v>572</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{84D3C724-B69A-4B42-A71D-9537B8BE45EA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B562">
+  <autoFilter ref="A1:C1" xr:uid="{84D3C724-B69A-4B42-A71D-9537B8BE45EA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C562">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
